--- a/players.xlsx
+++ b/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canan\Desktop\ecell-ipl-battle-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18E2722-ACF4-4A54-A1EB-BB661AEA0DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926928CA-1AA8-4061-91FF-596CCFEA38D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1766,7 +1766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
